--- a/mallar/import/2018-08-22_extraction_TDB.xlsx
+++ b/mallar/import/2018-08-22_extraction_TDB.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\magnus.sandberg\Documents\Visual Studio 2015\Projects\VoltigeClosedXML\mallar\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C272D293-C35D-4AC1-85BD-A82D6ADB986F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2122E31C-62D6-420D-BE66-243DDA25D916}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25425" windowHeight="11745" xr2:uid="{D12A7590-FB62-443F-B7EA-C31AE53F6B78}"/>
   </bookViews>
@@ -929,26 +929,26 @@
     <t>Svea Seniorer</t>
   </si>
   <si>
-    <t>Denmark1</t>
-  </si>
-  <si>
-    <t>Denmark2</t>
-  </si>
-  <si>
-    <t>Denmark3</t>
-  </si>
-  <si>
     <t>Frillesås</t>
   </si>
   <si>
     <t>Laholms juniorlag</t>
+  </si>
+  <si>
+    <t>BIS</t>
+  </si>
+  <si>
+    <t>VVK Junior team</t>
+  </si>
+  <si>
+    <t>SVT 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -956,13 +956,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -977,8 +989,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1295,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0AD6262-083B-4525-B8D2-E44A417EC291}">
   <dimension ref="A1:W94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1440,7 +1455,7 @@
         <v>21</v>
       </c>
       <c r="W2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.45">
@@ -1785,8 +1800,8 @@
       <c r="V7" t="s">
         <v>70</v>
       </c>
-      <c r="W7" t="s">
-        <v>300</v>
+      <c r="W7" s="1" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.45">
@@ -1853,8 +1868,8 @@
       <c r="V8" t="s">
         <v>73</v>
       </c>
-      <c r="W8" t="s">
-        <v>301</v>
+      <c r="W8" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.45">
@@ -1996,7 +2011,7 @@
         <v>99</v>
       </c>
       <c r="W10" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.45">
@@ -2206,7 +2221,7 @@
         <v>126</v>
       </c>
       <c r="W13" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.45">
@@ -5184,6 +5199,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
